--- a/Code/Results/Cases/Case_3_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.692936020538923</v>
+        <v>1.030328928315214</v>
       </c>
       <c r="C2">
-        <v>0.5897766414477417</v>
+        <v>0.3333604406678603</v>
       </c>
       <c r="D2">
-        <v>0.05556168619705204</v>
+        <v>0.02747446327848735</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4529891567013635</v>
+        <v>0.6667722330233588</v>
       </c>
       <c r="G2">
-        <v>0.0007911376533471868</v>
+        <v>0.002420739447516543</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2321816228260118</v>
+        <v>0.6297596269737085</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1752489976314564</v>
+        <v>0.2776079781274561</v>
       </c>
       <c r="M2">
-        <v>0.4411322998568394</v>
+        <v>0.2395579635942653</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.256475999699546</v>
+        <v>2.269282291836191</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.342592742144006</v>
+        <v>0.9208930879644868</v>
       </c>
       <c r="C3">
-        <v>0.5366564218308554</v>
+        <v>0.3155287654023766</v>
       </c>
       <c r="D3">
-        <v>0.04996143124596841</v>
+        <v>0.02556991596924973</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4237105435225601</v>
+        <v>0.6669166347670767</v>
       </c>
       <c r="G3">
-        <v>0.0007953009038657263</v>
+        <v>0.002423500990466341</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2431802341337104</v>
+        <v>0.6401161304543166</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.163326000807487</v>
+        <v>0.2766578962475705</v>
       </c>
       <c r="M3">
-        <v>0.384371483599395</v>
+        <v>0.2230850627558638</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.208170690088082</v>
+        <v>2.284275099860949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.127712105997148</v>
+        <v>0.8536182700579502</v>
       </c>
       <c r="C4">
-        <v>0.5040350553173027</v>
+        <v>0.3045284538312956</v>
       </c>
       <c r="D4">
-        <v>0.04651857168864382</v>
+        <v>0.02439392387783101</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4069567853844518</v>
+        <v>0.6675541946790347</v>
       </c>
       <c r="G4">
-        <v>0.0007979411107515649</v>
+        <v>0.002425287591582055</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2508945241557292</v>
+        <v>0.6469492478080099</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1562935218466706</v>
+        <v>0.276233648720023</v>
       </c>
       <c r="M4">
-        <v>0.3496574258041107</v>
+        <v>0.21301787775176</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.182543529429765</v>
+        <v>2.295328758516376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.040175104241882</v>
+        <v>0.8261846477008703</v>
       </c>
       <c r="C5">
-        <v>0.4907368079308014</v>
+        <v>0.3000330892038505</v>
       </c>
       <c r="D5">
-        <v>0.0451141756628175</v>
+        <v>0.02391307122421438</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4004187674143225</v>
+        <v>0.667951826492569</v>
       </c>
       <c r="G5">
-        <v>0.0007990385301102907</v>
+        <v>0.002426038597582614</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2542694027237999</v>
+        <v>0.64985286684324</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1534962605798995</v>
+        <v>0.2761008018259474</v>
       </c>
       <c r="M5">
-        <v>0.3355396150213608</v>
+        <v>0.2089275411436802</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.173057842666154</v>
+        <v>2.300297154256697</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.025640550883111</v>
+        <v>0.8216282439325369</v>
       </c>
       <c r="C6">
-        <v>0.4885282603700318</v>
+        <v>0.2992858830085652</v>
       </c>
       <c r="D6">
-        <v>0.04488088298197113</v>
+        <v>0.02383312870833265</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3993500861311716</v>
+        <v>0.6680261710192639</v>
       </c>
       <c r="G6">
-        <v>0.000799222066571751</v>
+        <v>0.002426164689731807</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2548434696436104</v>
+        <v>0.6503421970440577</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1530358045124913</v>
+        <v>0.2760811617137051</v>
       </c>
       <c r="M6">
-        <v>0.3331969109361381</v>
+        <v>0.2082490832722712</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.171538991420718</v>
+        <v>2.30115015116246</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.126531473307125</v>
+        <v>0.8532483636001871</v>
       </c>
       <c r="C7">
-        <v>0.5038557341857484</v>
+        <v>0.3044678785504118</v>
       </c>
       <c r="D7">
-        <v>0.04649963760613218</v>
+        <v>0.02438744547468019</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.406867463739033</v>
+        <v>0.6675589995205442</v>
       </c>
       <c r="G7">
-        <v>0.0007979558233009222</v>
+        <v>0.002425297626939031</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2509391160756209</v>
+        <v>0.6469879251522705</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1562555246146857</v>
+        <v>0.2762316949519317</v>
       </c>
       <c r="M7">
-        <v>0.3494669206462859</v>
+        <v>0.2129626646319167</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.182411797401315</v>
+        <v>2.295393886574701</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.572071056029927</v>
+        <v>0.9926132097600089</v>
       </c>
       <c r="C8">
-        <v>0.5714597323812711</v>
+        <v>0.3272229753136742</v>
       </c>
       <c r="D8">
-        <v>0.05363140080910256</v>
+        <v>0.02681916180105759</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4426286202195584</v>
+        <v>0.6667079748748392</v>
       </c>
       <c r="G8">
-        <v>0.0007925559658704118</v>
+        <v>0.002421672781090517</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.235768032934832</v>
+        <v>0.6332320323868323</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1710756635856967</v>
+        <v>0.2772473834665092</v>
       </c>
       <c r="M8">
-        <v>0.4215288805905857</v>
+        <v>0.2338684423535113</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.238948528946821</v>
+        <v>2.274067798290787</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.449088393343573</v>
+        <v>1.265204467861906</v>
       </c>
       <c r="C9">
-        <v>0.7041636276399004</v>
+        <v>0.3714242025238832</v>
       </c>
       <c r="D9">
-        <v>0.06759947976926384</v>
+        <v>0.03153428999343788</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5233421478934588</v>
+        <v>0.6694046255334882</v>
       </c>
       <c r="G9">
-        <v>0.0007826137066253992</v>
+        <v>0.002415283420845941</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2141390401459375</v>
+        <v>0.6100265197959409</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2026157308828687</v>
+        <v>0.2805008233742328</v>
       </c>
       <c r="M9">
-        <v>0.5642315191501197</v>
+        <v>0.2752309631595864</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.384509359882912</v>
+        <v>2.246946597948408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.097726715066131</v>
+        <v>1.464985878237485</v>
       </c>
       <c r="C10">
-        <v>0.8020160488212014</v>
+        <v>0.4036288395750773</v>
       </c>
       <c r="D10">
-        <v>0.07787743570553829</v>
+        <v>0.03496468616783943</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.590397682781898</v>
+        <v>0.6740629386099144</v>
       </c>
       <c r="G10">
-        <v>0.0007756748665457265</v>
+        <v>0.002411023081879477</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2039286712314485</v>
+        <v>0.5952853035930303</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2275818056642152</v>
+        <v>0.2836599993357112</v>
       </c>
       <c r="M10">
-        <v>0.6703784590386874</v>
+        <v>0.3058351721994157</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.51659524764284</v>
+        <v>2.236034207865742</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.394294358865181</v>
+        <v>1.555753009756984</v>
       </c>
       <c r="C11">
-        <v>0.8466762588899996</v>
+        <v>0.4182183955511505</v>
       </c>
       <c r="D11">
-        <v>0.08256296758169412</v>
+        <v>0.03651768614905393</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6228979947795494</v>
+        <v>0.6767668892621188</v>
       </c>
       <c r="G11">
-        <v>0.0007725908614315942</v>
+        <v>0.002409178236891074</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2006910975109015</v>
+        <v>0.5890823494178186</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2393965550367341</v>
+        <v>0.2852641352805421</v>
       </c>
       <c r="M11">
-        <v>0.719060836168147</v>
+        <v>0.3198030320214116</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.583099260824497</v>
+        <v>2.23303850722823</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.506861212846218</v>
+        <v>1.590106281127476</v>
       </c>
       <c r="C12">
-        <v>0.8636149843374028</v>
+        <v>0.4237341037578233</v>
       </c>
       <c r="D12">
-        <v>0.08433926608626763</v>
+        <v>0.03710466097014375</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6355200473836788</v>
+        <v>0.6778751534139218</v>
       </c>
       <c r="G12">
-        <v>0.0007714328612472873</v>
+        <v>0.002408492974429943</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1996831876775289</v>
+        <v>0.5868059511484738</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2439423230308648</v>
+        <v>0.2858955802616947</v>
       </c>
       <c r="M12">
-        <v>0.7375622523387264</v>
+        <v>0.3250986949147716</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.609291567989345</v>
+        <v>2.232188041632895</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.482605424322799</v>
+        <v>1.582708530860202</v>
       </c>
       <c r="C13">
-        <v>0.8599656338864463</v>
+        <v>0.4225466047587929</v>
       </c>
       <c r="D13">
-        <v>0.08395661073972605</v>
+        <v>0.03697829545125586</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6327871924744386</v>
+        <v>0.6776327142907235</v>
       </c>
       <c r="G13">
-        <v>0.0007716818290508386</v>
+        <v>0.002408639965612561</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1998902963749458</v>
+        <v>0.587292985307748</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2429600181854568</v>
+        <v>0.2857585205274091</v>
       </c>
       <c r="M13">
-        <v>0.7335745250955199</v>
+        <v>0.3239579013513847</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.603604287298452</v>
+        <v>2.23235856217579</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.403549741694633</v>
+        <v>1.558579650602837</v>
       </c>
       <c r="C14">
-        <v>0.8480692444697695</v>
+        <v>0.4186723593010697</v>
       </c>
       <c r="D14">
-        <v>0.08270906156274549</v>
+        <v>0.03656599940901373</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.623929941044338</v>
+        <v>0.6768563752521359</v>
       </c>
       <c r="G14">
-        <v>0.0007724953981966675</v>
+        <v>0.002409121592844565</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2006037110155887</v>
+        <v>0.5888936140376302</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2397690637113357</v>
+        <v>0.2853156039018074</v>
       </c>
       <c r="M14">
-        <v>0.7205815693890969</v>
+        <v>0.3202385838407977</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.585233387116602</v>
+        <v>2.232962843241751</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.355161599203029</v>
+        <v>1.543797581618605</v>
       </c>
       <c r="C15">
-        <v>0.8407860426179923</v>
+        <v>0.4162980847517872</v>
       </c>
       <c r="D15">
-        <v>0.08194517775108778</v>
+        <v>0.03631331030119611</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6185464876480182</v>
+        <v>0.6763918352267524</v>
       </c>
       <c r="G15">
-        <v>0.0007729949970669208</v>
+        <v>0.002409418338863919</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2010695867203083</v>
+        <v>0.5898834965690654</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2378240447398099</v>
+        <v>0.2850474286757816</v>
       </c>
       <c r="M15">
-        <v>0.7126319604580829</v>
+        <v>0.3179612122409097</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.574114699840266</v>
+        <v>2.233369986623444</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.078379462673865</v>
+        <v>1.459051574445198</v>
       </c>
       <c r="C16">
-        <v>0.7991008329572935</v>
+        <v>0.4026741312545425</v>
       </c>
       <c r="D16">
-        <v>0.07757147274463705</v>
+        <v>0.03486304009493324</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.588316214200006</v>
+        <v>0.6738980180611662</v>
       </c>
       <c r="G16">
-        <v>0.000775877823819482</v>
+        <v>0.002411145517221387</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2041698895228841</v>
+        <v>0.5957008187802266</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2268193927669415</v>
+        <v>0.2835585240486296</v>
       </c>
       <c r="M16">
-        <v>0.6672057126162514</v>
+        <v>0.3049232404474012</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.5123853826897</v>
+        <v>2.236269669196929</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.908999126339324</v>
+        <v>1.407032037789236</v>
       </c>
       <c r="C17">
-        <v>0.7735698246165441</v>
+        <v>0.3943005393084604</v>
       </c>
       <c r="D17">
-        <v>0.07489129087409196</v>
+        <v>0.03397140035750823</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5703013944855684</v>
+        <v>0.6725181063844445</v>
       </c>
       <c r="G17">
-        <v>0.0007776645147495256</v>
+        <v>0.002412228912529685</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2064430765710235</v>
+        <v>0.5993985113554423</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2201897079447406</v>
+        <v>0.2826878888421334</v>
       </c>
       <c r="M17">
-        <v>0.6394460778030862</v>
+        <v>0.2969364281120761</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.476219196739407</v>
+        <v>2.238553318387943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.811714038465823</v>
+        <v>1.377101112682169</v>
       </c>
       <c r="C18">
-        <v>0.7588984914969217</v>
+        <v>0.3894785968053327</v>
       </c>
       <c r="D18">
-        <v>0.07335063054189561</v>
+        <v>0.03345784839261512</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5601258758301242</v>
+        <v>0.6717794536598589</v>
       </c>
       <c r="G18">
-        <v>0.0007786990339980364</v>
+        <v>0.002412860829232732</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2078819955297035</v>
+        <v>0.6015726490642557</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2164191728745237</v>
+        <v>0.2822028437100386</v>
       </c>
       <c r="M18">
-        <v>0.6235160895008889</v>
+        <v>0.2923469558539722</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.456015898136599</v>
+        <v>2.240052035424014</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.778797293635364</v>
+        <v>1.366965239839146</v>
       </c>
       <c r="C19">
-        <v>0.7539331684083095</v>
+        <v>0.387845005868428</v>
       </c>
       <c r="D19">
-        <v>0.07282912975497879</v>
+        <v>0.03328384856772715</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5567117738615437</v>
+        <v>0.6715388038422603</v>
       </c>
       <c r="G19">
-        <v>0.0007790505000247252</v>
+        <v>0.002413076294739203</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2083913030343645</v>
+        <v>0.6023168960679506</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2151496902779684</v>
+        <v>0.2820413165782725</v>
       </c>
       <c r="M19">
-        <v>0.6181284792021415</v>
+        <v>0.2907937910773555</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.449275695434068</v>
+        <v>2.240591260263244</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.927015337181729</v>
+        <v>1.412570723105375</v>
       </c>
       <c r="C20">
-        <v>0.7762862140536129</v>
+        <v>0.3951925121728834</v>
       </c>
       <c r="D20">
-        <v>0.07517650288881583</v>
+        <v>0.03406639007225465</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5721996442482009</v>
+        <v>0.6726593026150738</v>
       </c>
       <c r="G20">
-        <v>0.000777473612370422</v>
+        <v>0.002412112675293694</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2061873778394236</v>
+        <v>0.5989999864208286</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2208909895931299</v>
+        <v>0.2827789425229241</v>
       </c>
       <c r="M20">
-        <v>0.6423972814217223</v>
+        <v>0.2977861915419098</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.480006601462463</v>
+        <v>2.238291043756107</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.426762772104155</v>
+        <v>1.565667397906736</v>
       </c>
       <c r="C21">
-        <v>0.8515627244096606</v>
+        <v>0.4198105671508472</v>
       </c>
       <c r="D21">
-        <v>0.08307543841927867</v>
+        <v>0.03668713121060563</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6265227524580865</v>
+        <v>0.6770821141142704</v>
       </c>
       <c r="G21">
-        <v>0.0007722561708118174</v>
+        <v>0.002408979765690943</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2003881137269872</v>
+        <v>0.5884215005815499</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.240704326463387</v>
+        <v>0.2854450482535213</v>
       </c>
       <c r="M21">
-        <v>0.724396031763078</v>
+        <v>0.3213308675831854</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.59060127372976</v>
+        <v>2.232777638114015</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.754935257302236</v>
+        <v>1.665617593062052</v>
       </c>
       <c r="C22">
-        <v>0.900919976397148</v>
+        <v>0.4358470411046937</v>
       </c>
       <c r="D22">
-        <v>0.0882497330076859</v>
+        <v>0.03839343681116247</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.663875907753166</v>
+        <v>0.6804643633294916</v>
       </c>
       <c r="G22">
-        <v>0.0007689033590703652</v>
+        <v>0.00240700995751789</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1978773137553098</v>
+        <v>0.5819306815948764</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2540749696719047</v>
+        <v>0.2873273445532334</v>
       </c>
       <c r="M22">
-        <v>0.7783793155555045</v>
+        <v>0.3367554968867381</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.668805315826859</v>
+        <v>2.230829743679863</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.579624045259038</v>
+        <v>1.61228270987084</v>
       </c>
       <c r="C23">
-        <v>0.8745604211710258</v>
+        <v>0.4272930205909518</v>
       </c>
       <c r="D23">
-        <v>0.0854868341593189</v>
+        <v>0.03748335515483348</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6437608197028908</v>
+        <v>0.6786141270438861</v>
       </c>
       <c r="G23">
-        <v>0.0007706877970511459</v>
+        <v>0.002408054189323661</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1990948033786637</v>
+        <v>0.585356195500438</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2468981464832183</v>
+        <v>0.2863099394734974</v>
       </c>
       <c r="M23">
-        <v>0.7495281559523974</v>
+        <v>0.3285197967636861</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.626494190768483</v>
+        <v>2.231717607305541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.918869919258896</v>
+        <v>1.4100667587212</v>
       </c>
       <c r="C24">
-        <v>0.7750581136905623</v>
+        <v>0.3947892756775957</v>
       </c>
       <c r="D24">
-        <v>0.07504755791747897</v>
+        <v>0.03402344813654423</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5713408824595234</v>
+        <v>0.6725952975017151</v>
       </c>
       <c r="G24">
-        <v>0.0007775598964739682</v>
+        <v>0.002412165198006074</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2063025691575859</v>
+        <v>0.599180009153276</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2205738130287358</v>
+        <v>0.2827377288886765</v>
       </c>
       <c r="M24">
-        <v>0.6410629514194923</v>
+        <v>0.2974020064601532</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.478292487212883</v>
+        <v>2.238409039372897</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.211252862320237</v>
+        <v>1.191543115048432</v>
       </c>
       <c r="C25">
-        <v>0.6682226109886074</v>
+        <v>0.359513082455976</v>
       </c>
       <c r="D25">
-        <v>0.06382002572126311</v>
+        <v>0.03026457303946728</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5002445182694899</v>
+        <v>0.6682061165370357</v>
       </c>
       <c r="G25">
-        <v>0.000785236952584108</v>
+        <v>0.002416935396684027</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2190484013480862</v>
+        <v>0.6158996401714809</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.193789938666427</v>
+        <v>0.2794856391104332</v>
       </c>
       <c r="M25">
-        <v>0.5254328283436891</v>
+        <v>0.2640029369254506</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.34102128374073</v>
+        <v>2.252704503005617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.030328928315214</v>
+        <v>2.692936020538809</v>
       </c>
       <c r="C2">
-        <v>0.3333604406678603</v>
+        <v>0.5897766414472585</v>
       </c>
       <c r="D2">
-        <v>0.02747446327848735</v>
+        <v>0.05556168619709467</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6667722330233588</v>
+        <v>0.4529891567013564</v>
       </c>
       <c r="G2">
-        <v>0.002420739447516543</v>
+        <v>0.0007911376533263017</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6297596269737085</v>
+        <v>0.2321816228259905</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2776079781274561</v>
+        <v>0.1752489976314422</v>
       </c>
       <c r="M2">
-        <v>0.2395579635942653</v>
+        <v>0.4411322998568323</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.269282291836191</v>
+        <v>1.256475999699546</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9208930879644868</v>
+        <v>2.34259274214395</v>
       </c>
       <c r="C3">
-        <v>0.3155287654023766</v>
+        <v>0.5366564218306564</v>
       </c>
       <c r="D3">
-        <v>0.02556991596924973</v>
+        <v>0.04996143124597552</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6669166347670767</v>
+        <v>0.4237105435225459</v>
       </c>
       <c r="G3">
-        <v>0.002423500990466341</v>
+        <v>0.0007953009038062739</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6401161304543166</v>
+        <v>0.2431802341337068</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2766578962475705</v>
+        <v>0.1633260008075226</v>
       </c>
       <c r="M3">
-        <v>0.2230850627558638</v>
+        <v>0.3843714835994021</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.284275099860949</v>
+        <v>1.208170690088082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8536182700579502</v>
+        <v>2.127712105997091</v>
       </c>
       <c r="C4">
-        <v>0.3045284538312956</v>
+        <v>0.5040350553169901</v>
       </c>
       <c r="D4">
-        <v>0.02439392387783101</v>
+        <v>0.04651857168860829</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6675541946790347</v>
+        <v>0.4069567853844376</v>
       </c>
       <c r="G4">
-        <v>0.002425287591582055</v>
+        <v>0.0007979411108284097</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6469492478080099</v>
+        <v>0.2508945241557292</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.276233648720023</v>
+        <v>0.1562935218466279</v>
       </c>
       <c r="M4">
-        <v>0.21301787775176</v>
+        <v>0.3496574258041178</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.295328758516376</v>
+        <v>1.182543529429765</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8261846477008703</v>
+        <v>2.040175104241825</v>
       </c>
       <c r="C5">
-        <v>0.3000330892038505</v>
+        <v>0.4907368079310004</v>
       </c>
       <c r="D5">
-        <v>0.02391307122421438</v>
+        <v>0.04511417566286013</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.667951826492569</v>
+        <v>0.4004187674143012</v>
       </c>
       <c r="G5">
-        <v>0.002426038597582614</v>
+        <v>0.0007990385301106578</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.64985286684324</v>
+        <v>0.2542694027237999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2761008018259474</v>
+        <v>0.1534962605798427</v>
       </c>
       <c r="M5">
-        <v>0.2089275411436802</v>
+        <v>0.3355396150213537</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.300297154256697</v>
+        <v>1.17305784266614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8216282439325369</v>
+        <v>2.025640550882997</v>
       </c>
       <c r="C6">
-        <v>0.2992858830085652</v>
+        <v>0.4885282603702024</v>
       </c>
       <c r="D6">
-        <v>0.02383312870833265</v>
+        <v>0.04488088298209902</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6680261710192639</v>
+        <v>0.3993500861311716</v>
       </c>
       <c r="G6">
-        <v>0.002426164689731807</v>
+        <v>0.0007992220665725121</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6503421970440577</v>
+        <v>0.2548434696436068</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2760811617137051</v>
+        <v>0.153035804512335</v>
       </c>
       <c r="M6">
-        <v>0.2082490832722712</v>
+        <v>0.3331969109361452</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.30115015116246</v>
+        <v>1.171538991420761</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8532483636001871</v>
+        <v>2.126531473307125</v>
       </c>
       <c r="C7">
-        <v>0.3044678785504118</v>
+        <v>0.5038557341856915</v>
       </c>
       <c r="D7">
-        <v>0.02438744547468019</v>
+        <v>0.04649963760619613</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6675589995205442</v>
+        <v>0.4068674637390401</v>
       </c>
       <c r="G7">
-        <v>0.002425297626939031</v>
+        <v>0.0007979558233595862</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6469879251522705</v>
+        <v>0.2509391160756209</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2762316949519317</v>
+        <v>0.1562555246146715</v>
       </c>
       <c r="M7">
-        <v>0.2129626646319167</v>
+        <v>0.3494669206463001</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.295393886574701</v>
+        <v>1.182411797401272</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9926132097600089</v>
+        <v>2.572071056029927</v>
       </c>
       <c r="C8">
-        <v>0.3272229753136742</v>
+        <v>0.5714597323811859</v>
       </c>
       <c r="D8">
-        <v>0.02681916180105759</v>
+        <v>0.0536314008091523</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6667079748748392</v>
+        <v>0.4426286202195371</v>
       </c>
       <c r="G8">
-        <v>0.002421672781090517</v>
+        <v>0.0007925559658706682</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6332320323868323</v>
+        <v>0.2357680329348248</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2772473834665092</v>
+        <v>0.1710756635857251</v>
       </c>
       <c r="M8">
-        <v>0.2338684423535113</v>
+        <v>0.4215288805905857</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.274067798290787</v>
+        <v>1.238948528946793</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.265204467861906</v>
+        <v>3.449088393343459</v>
       </c>
       <c r="C9">
-        <v>0.3714242025238832</v>
+        <v>0.7041636276397298</v>
       </c>
       <c r="D9">
-        <v>0.03153428999343788</v>
+        <v>0.06759947976914304</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6694046255334882</v>
+        <v>0.523342147893473</v>
       </c>
       <c r="G9">
-        <v>0.002415283420845941</v>
+        <v>0.0007826137067047168</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6100265197959409</v>
+        <v>0.2141390401459518</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2805008233742328</v>
+        <v>0.2026157308828545</v>
       </c>
       <c r="M9">
-        <v>0.2752309631595864</v>
+        <v>0.5642315191501197</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.246946597948408</v>
+        <v>1.384509359882884</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.464985878237485</v>
+        <v>4.097726715065846</v>
       </c>
       <c r="C10">
-        <v>0.4036288395750773</v>
+        <v>0.8020160488211161</v>
       </c>
       <c r="D10">
-        <v>0.03496468616783943</v>
+        <v>0.0778774357056804</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6740629386099144</v>
+        <v>0.5903976827818838</v>
       </c>
       <c r="G10">
-        <v>0.002411023081879477</v>
+        <v>0.0007756748664861903</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5952853035930303</v>
+        <v>0.2039286712314663</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2836599993357112</v>
+        <v>0.2275818056642436</v>
       </c>
       <c r="M10">
-        <v>0.3058351721994157</v>
+        <v>0.6703784590387087</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.236034207865742</v>
+        <v>1.516595247642925</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.555753009756984</v>
+        <v>4.394294358865068</v>
       </c>
       <c r="C11">
-        <v>0.4182183955511505</v>
+        <v>0.8466762588903123</v>
       </c>
       <c r="D11">
-        <v>0.03651768614905393</v>
+        <v>0.0825629675819215</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6767668892621188</v>
+        <v>0.6228979947795636</v>
       </c>
       <c r="G11">
-        <v>0.002409178236891074</v>
+        <v>0.0007725908614342699</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5890823494178186</v>
+        <v>0.2006910975109015</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2852641352805421</v>
+        <v>0.2393965550367341</v>
       </c>
       <c r="M11">
-        <v>0.3198030320214116</v>
+        <v>0.7190608361681612</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.23303850722823</v>
+        <v>1.583099260824525</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.590106281127476</v>
+        <v>4.506861212846218</v>
       </c>
       <c r="C12">
-        <v>0.4237341037578233</v>
+        <v>0.8636149843374028</v>
       </c>
       <c r="D12">
-        <v>0.03710466097014375</v>
+        <v>0.08433926608614684</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6778751534139218</v>
+        <v>0.6355200473836931</v>
       </c>
       <c r="G12">
-        <v>0.002408492974429943</v>
+        <v>0.0007714328611637616</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5868059511484738</v>
+        <v>0.1996831876774969</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2858955802616947</v>
+        <v>0.2439423230309217</v>
       </c>
       <c r="M12">
-        <v>0.3250986949147716</v>
+        <v>0.7375622523387406</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.232188041632895</v>
+        <v>1.60929156798943</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.582708530860202</v>
+        <v>4.482605424322628</v>
       </c>
       <c r="C13">
-        <v>0.4225466047587929</v>
+        <v>0.8599656338861337</v>
       </c>
       <c r="D13">
-        <v>0.03697829545125586</v>
+        <v>0.08395661073983973</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6776327142907235</v>
+        <v>0.6327871924744528</v>
       </c>
       <c r="G13">
-        <v>0.002408639965612561</v>
+        <v>0.0007716818290218727</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.587292985307748</v>
+        <v>0.1998902963749778</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2857585205274091</v>
+        <v>0.242960018185471</v>
       </c>
       <c r="M13">
-        <v>0.3239579013513847</v>
+        <v>0.7335745250955199</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.23235856217579</v>
+        <v>1.603604287298481</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.558579650602837</v>
+        <v>4.403549741694462</v>
       </c>
       <c r="C14">
-        <v>0.4186723593010697</v>
+        <v>0.8480692444697411</v>
       </c>
       <c r="D14">
-        <v>0.03656599940901373</v>
+        <v>0.08270906156285918</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6768563752521359</v>
+        <v>0.6239299410443238</v>
       </c>
       <c r="G14">
-        <v>0.002409121592844565</v>
+        <v>0.0007724953982002578</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5888936140376302</v>
+        <v>0.2006037110155781</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2853156039018074</v>
+        <v>0.2397690637114209</v>
       </c>
       <c r="M14">
-        <v>0.3202385838407977</v>
+        <v>0.7205815693890969</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.232962843241751</v>
+        <v>1.58523338711646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.543797581618605</v>
+        <v>4.355161599203143</v>
       </c>
       <c r="C15">
-        <v>0.4162980847517872</v>
+        <v>0.840786042617566</v>
       </c>
       <c r="D15">
-        <v>0.03631331030119611</v>
+        <v>0.0819451777509741</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6763918352267524</v>
+        <v>0.6185464876480182</v>
       </c>
       <c r="G15">
-        <v>0.002409418338863919</v>
+        <v>0.0007729949970124842</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5898834965690654</v>
+        <v>0.2010695867203083</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2850474286757816</v>
+        <v>0.2378240447397104</v>
       </c>
       <c r="M15">
-        <v>0.3179612122409097</v>
+        <v>0.7126319604580758</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.233369986623444</v>
+        <v>1.574114699840351</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.459051574445198</v>
+        <v>4.078379462673695</v>
       </c>
       <c r="C16">
-        <v>0.4026741312545425</v>
+        <v>0.7991008329571798</v>
       </c>
       <c r="D16">
-        <v>0.03486304009493324</v>
+        <v>0.07757147274469389</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6738980180611662</v>
+        <v>0.5883162142000202</v>
       </c>
       <c r="G16">
-        <v>0.002411145517221387</v>
+        <v>0.0007758778238184828</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5957008187802266</v>
+        <v>0.2041698895228805</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2835585240486296</v>
+        <v>0.2268193927669131</v>
       </c>
       <c r="M16">
-        <v>0.3049232404474012</v>
+        <v>0.6672057126162514</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.236269669196929</v>
+        <v>1.512385382689729</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.407032037789236</v>
+        <v>3.908999126339324</v>
       </c>
       <c r="C17">
-        <v>0.3943005393084604</v>
+        <v>0.7735698246168567</v>
       </c>
       <c r="D17">
-        <v>0.03397140035750823</v>
+        <v>0.07489129087420565</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6725181063844445</v>
+        <v>0.5703013944855542</v>
       </c>
       <c r="G17">
-        <v>0.002412228912529685</v>
+        <v>0.0007776645147733064</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5993985113554423</v>
+        <v>0.2064430765710021</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2826878888421334</v>
+        <v>0.220189707944769</v>
       </c>
       <c r="M17">
-        <v>0.2969364281120761</v>
+        <v>0.6394460778031075</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.238553318387943</v>
+        <v>1.476219196739407</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.377101112682169</v>
+        <v>3.811714038465936</v>
       </c>
       <c r="C18">
-        <v>0.3894785968053327</v>
+        <v>0.7588984914970354</v>
       </c>
       <c r="D18">
-        <v>0.03345784839261512</v>
+        <v>0.07335063054193824</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6717794536598589</v>
+        <v>0.5601258758301455</v>
       </c>
       <c r="G18">
-        <v>0.002412860829232732</v>
+        <v>0.0007786990340025968</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6015726490642557</v>
+        <v>0.2078819955296929</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2822028437100386</v>
+        <v>0.2164191728745095</v>
       </c>
       <c r="M18">
-        <v>0.2923469558539722</v>
+        <v>0.6235160895008676</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.240052035424014</v>
+        <v>1.456015898136627</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.366965239839146</v>
+        <v>3.778797293635364</v>
       </c>
       <c r="C19">
-        <v>0.387845005868428</v>
+        <v>0.7539331684083663</v>
       </c>
       <c r="D19">
-        <v>0.03328384856772715</v>
+        <v>0.07282912975504274</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6715388038422603</v>
+        <v>0.5567117738615437</v>
       </c>
       <c r="G19">
-        <v>0.002413076294739203</v>
+        <v>0.0007790505000251578</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6023168960679506</v>
+        <v>0.2083913030343645</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2820413165782725</v>
+        <v>0.2151496902779684</v>
       </c>
       <c r="M19">
-        <v>0.2907937910773555</v>
+        <v>0.6181284792021344</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.240591260263244</v>
+        <v>1.449275695434068</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.412570723105375</v>
+        <v>3.927015337181842</v>
       </c>
       <c r="C20">
-        <v>0.3951925121728834</v>
+        <v>0.7762862140534992</v>
       </c>
       <c r="D20">
-        <v>0.03406639007225465</v>
+        <v>0.07517650288870215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6726593026150738</v>
+        <v>0.5721996442482009</v>
       </c>
       <c r="G20">
-        <v>0.002412112675293694</v>
+        <v>0.0007774736123951631</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5989999864208286</v>
+        <v>0.2061873778394201</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2827789425229241</v>
+        <v>0.2208909895931015</v>
       </c>
       <c r="M20">
-        <v>0.2977861915419098</v>
+        <v>0.6423972814217223</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.238291043756107</v>
+        <v>1.480006601462463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.565667397906736</v>
+        <v>4.426762772104155</v>
       </c>
       <c r="C21">
-        <v>0.4198105671508472</v>
+        <v>0.8515627244095469</v>
       </c>
       <c r="D21">
-        <v>0.03668713121060563</v>
+        <v>0.08307543841916498</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6770821141142704</v>
+        <v>0.6265227524581007</v>
       </c>
       <c r="G21">
-        <v>0.002408979765690943</v>
+        <v>0.0007722561708687719</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5884215005815499</v>
+        <v>0.2003881137269978</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2854450482535213</v>
+        <v>0.240704326463387</v>
       </c>
       <c r="M21">
-        <v>0.3213308675831854</v>
+        <v>0.7243960317630851</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.232777638114015</v>
+        <v>1.59060127372976</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.665617593062052</v>
+        <v>4.754935257302009</v>
       </c>
       <c r="C22">
-        <v>0.4358470411046937</v>
+        <v>0.900919976396807</v>
       </c>
       <c r="D22">
-        <v>0.03839343681116247</v>
+        <v>0.08824973300756511</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6804643633294916</v>
+        <v>0.663875907753166</v>
       </c>
       <c r="G22">
-        <v>0.00240700995751789</v>
+        <v>0.0007689033590422618</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5819306815948764</v>
+        <v>0.1978773137553311</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2873273445532334</v>
+        <v>0.2540749696717342</v>
       </c>
       <c r="M22">
-        <v>0.3367554968867381</v>
+        <v>0.7783793155555045</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.230829743679863</v>
+        <v>1.66880531582683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.61228270987084</v>
+        <v>4.579624045259152</v>
       </c>
       <c r="C23">
-        <v>0.4272930205909518</v>
+        <v>0.874560421170969</v>
       </c>
       <c r="D23">
-        <v>0.03748335515483348</v>
+        <v>0.0854868341593189</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6786141270438861</v>
+        <v>0.6437608197028908</v>
       </c>
       <c r="G23">
-        <v>0.002408054189323661</v>
+        <v>0.0007706877970469925</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.585356195500438</v>
+        <v>0.1990948033786744</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2863099394734974</v>
+        <v>0.2468981464831899</v>
       </c>
       <c r="M23">
-        <v>0.3285197967636861</v>
+        <v>0.7495281559523903</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.231717607305541</v>
+        <v>1.626494190768426</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.4100667587212</v>
+        <v>3.918869919258839</v>
       </c>
       <c r="C24">
-        <v>0.3947892756775957</v>
+        <v>0.7750581136905339</v>
       </c>
       <c r="D24">
-        <v>0.03402344813654423</v>
+        <v>0.07504755791736528</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6725952975017151</v>
+        <v>0.5713408824595234</v>
       </c>
       <c r="G24">
-        <v>0.002412165198006074</v>
+        <v>0.0007775598964969323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.599180009153276</v>
+        <v>0.2063025691575966</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2827377288886765</v>
+        <v>0.2205738130287642</v>
       </c>
       <c r="M24">
-        <v>0.2974020064601532</v>
+        <v>0.6410629514194923</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.238409039372897</v>
+        <v>1.478292487212883</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.191543115048432</v>
+        <v>3.21125286232018</v>
       </c>
       <c r="C25">
-        <v>0.359513082455976</v>
+        <v>0.6682226109888063</v>
       </c>
       <c r="D25">
-        <v>0.03026457303946728</v>
+        <v>0.06382002572149048</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6682061165370357</v>
+        <v>0.500244518269497</v>
       </c>
       <c r="G25">
-        <v>0.002416935396684027</v>
+        <v>0.0007852369524670904</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6158996401714809</v>
+        <v>0.2190484013481004</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2794856391104332</v>
+        <v>0.1937899386664057</v>
       </c>
       <c r="M25">
-        <v>0.2640029369254506</v>
+        <v>0.5254328283436678</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.252704503005617</v>
+        <v>1.34102128374073</v>
       </c>
     </row>
   </sheetData>
